--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>375909.7652447733</v>
+        <v>364775.9230194032</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>14046880.39707513</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901944</v>
+        <v>4671565.284901947</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7216656.822088795</v>
+        <v>7150122.844485439</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>34.35248743867763</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>71.94762989914921</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170412</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>276.3539409783856</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>90.64120017851245</v>
       </c>
       <c r="T5" t="n">
-        <v>90.56765762246758</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1054,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>51.69511841098189</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>73.70641259348736</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.39333272290736</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.0673923170412</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>371.9180426215101</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>66.72457055527012</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>107.5562656493851</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>91.90090032357426</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.1295862066223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>84.7383931707359</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>108.7709800673983</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>97.0813610937041</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>265.5672156808876</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>101.5800624936542</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.98727664058491</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2573,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>234.3692901880346</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>115.3288057180336</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2792,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>218.7757544134941</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>104.9037564455526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>69.61444029309516</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231916</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>82.38632349887008</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.668515703089</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C2" t="n">
-        <v>893.7677857163897</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D2" t="n">
-        <v>470.47516490139</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2190.211770201085</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1969.286199245718</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1710.93128984213</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1710.93128984213</v>
       </c>
       <c r="W2" t="n">
-        <v>2152.236878826872</v>
+        <v>1314.539940142477</v>
       </c>
       <c r="X2" t="n">
-        <v>1740.51687999462</v>
+        <v>1314.539940142477</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.51687999462</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>695.3677541233685</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>695.3677541233685</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>1128.080930530455</v>
       </c>
       <c r="M3" t="n">
-        <v>205.6899987133984</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="N3" t="n">
-        <v>205.6899987133984</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2142.891942377672</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5772905989122</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5772905989122</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.5231368465472</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>572.914647509062</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2133.354484605292</v>
       </c>
       <c r="T5" t="n">
-        <v>2133.42877001544</v>
+        <v>1912.428913649926</v>
       </c>
       <c r="U5" t="n">
-        <v>2133.42877001544</v>
+        <v>1654.074004246338</v>
       </c>
       <c r="V5" t="n">
-        <v>2133.42877001544</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="W5" t="n">
-        <v>2133.42877001544</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.708771183187</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y5" t="n">
-        <v>1316.371501138077</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="6">
@@ -4626,40 +4628,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C7" t="n">
-        <v>216.3599992746871</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D7" t="n">
-        <v>216.3599992746871</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E7" t="n">
-        <v>216.3599992746871</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>872.1299082747987</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C8" t="n">
-        <v>872.1299082747987</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>448.8372874597989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.035541443691</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.315542611439</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.978272566329</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4865,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N9" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G10" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4981,31 +4983,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109778</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.191253630124</v>
+        <v>1303.486689458154</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.290523643424</v>
+        <v>927.8118989313758</v>
       </c>
       <c r="D11" t="n">
-        <v>962.9979028284242</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E11" t="n">
-        <v>537.0209629762818</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>111.896781165682</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M11" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630124</v>
+        <v>1708.823959503263</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.191253630124</v>
+        <v>1303.486689458154</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M12" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N12" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5227,22 +5229,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1003.334268426084</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C14" t="n">
-        <v>576.4335384393837</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D14" t="n">
-        <v>153.140917624384</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E14" t="n">
-        <v>153.140917624384</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F14" t="n">
-        <v>153.140917624384</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N14" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O14" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="W14" t="n">
-        <v>1828.519902762723</v>
+        <v>1244.872128276908</v>
       </c>
       <c r="X14" t="n">
-        <v>1828.519902762723</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y14" t="n">
-        <v>1423.182632717614</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N15" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.689568770218</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C17" t="n">
-        <v>1353.788838783518</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D17" t="n">
-        <v>930.4962179685185</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E17" t="n">
-        <v>504.5192781163761</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F17" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G17" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
         <v>79.39509630577632</v>
@@ -5516,10 +5518,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M17" t="n">
         <v>1145.829295018124</v>
@@ -5540,25 +5542,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y17" t="n">
-        <v>2200.537933061748</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K18" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L18" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M18" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N18" t="n">
         <v>595.1637600336857</v>
-      </c>
-      <c r="L18" t="n">
-        <v>838.3748437825398</v>
-      </c>
-      <c r="M18" t="n">
-        <v>838.3748437825398</v>
-      </c>
-      <c r="N18" t="n">
-        <v>838.3748437825398</v>
       </c>
       <c r="O18" t="n">
         <v>838.3748437825398</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>792.3900115791711</v>
+        <v>1049.956911236352</v>
       </c>
       <c r="C19" t="n">
-        <v>792.3900115791711</v>
+        <v>877.9843481152679</v>
       </c>
       <c r="D19" t="n">
         <v>792.3900115791711</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2115.04157562662</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1871.70222785252</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.517779352824</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V19" t="n">
-        <v>1309.806311960853</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W19" t="n">
-        <v>1034.953908133366</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="X19" t="n">
-        <v>792.3900115791711</v>
+        <v>1240.122879948418</v>
       </c>
       <c r="Y19" t="n">
-        <v>792.3900115791711</v>
+        <v>1240.122879948418</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>1646.496266633258</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>1250.104916933605</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O21" t="n">
-        <v>1191.617659878699</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.9189991784958</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574118</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841825</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V22" t="n">
-        <v>1869.241345563992</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.991632755014</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X22" t="n">
-        <v>1358.427736200819</v>
+        <v>1420.451440016514</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.084967890562</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>946.5481644506465</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>946.5481644506465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1955.492679006434</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.640275178947</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1438.076378624753</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.733610314495</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6266,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
         <v>268.5596831115964</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,16 +6408,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1875.844036582501</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1875.844036582501</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V28" t="n">
         <v>1875.844036582501</v>
@@ -6427,7 +6429,7 @@
         <v>1358.427736200819</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6470,43 +6472,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4897.962009497735</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4897.962009497735</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4897.962009497735</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3375.975369221655</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3204.002806100571</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>3040.686033227342</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>4591.611874017632</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>4309.90040662566</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W34" t="n">
-        <v>4035.048002798173</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>3792.484106243979</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>3566.14133793372</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6950,37 +6952,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7019,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3034.491211138023</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3034.491211138023</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3034.491211138023</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3034.491211138023</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7254,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,25 +7356,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="Y40" t="n">
         <v>1375.649804642131</v>
@@ -7400,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7409,49 +7411,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7494,22 +7496,22 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
-        <v>730.647150085061</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.33777973203</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U43" t="n">
-        <v>1992.33777973203</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="V43" t="n">
-        <v>1992.33777973203</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>804.1642048184415</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>377.2634748317415</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>377.2634748317415</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>377.2634748317415</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2634748317415</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924753</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>572.914647509062</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>1123.5801824935</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>804.1642048184415</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>804.1642048184415</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1892506764427</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>751.8547856608809</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.520320645319</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N45" t="n">
-        <v>1302.520320645319</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.520320645319</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734062</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792433</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736641</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462377</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462377</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>2224.911252462377</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870443</v>
       </c>
       <c r="M3" t="n">
-        <v>185.9167539104601</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629861</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244924</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>204.9191049629863</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498007</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O11" t="n">
-        <v>452.4011488286621</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3705437721212</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>571.1852249800525</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9012,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,13 +9166,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>593.5074359500402</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>268.1828480767085</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P18" t="n">
         <v>577.9986543204228</v>
@@ -9401,22 +9403,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>571.1852249800522</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>279.576101048122</v>
+        <v>466.3767193553318</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>273.92387204262</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10118,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>859.1289664256981</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10667,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10904,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>447.3998461757263</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>572.0660045132436</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204228</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22553,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>68.97113374691335</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>320.4798063035074</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988597</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.540411739665785</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22793,7 +22795,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>12.68242100707855</v>
       </c>
       <c r="T5" t="n">
-        <v>128.1486576233456</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,16 +22944,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>118.5577190788913</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>348.9253100933455</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23081,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>381.0341034797492</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23194,7 +23196,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>19.29091348988597</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.71368006532276</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.5711012311757</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>53.328125375718</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23507,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>292.7394061370608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>315.7018985203559</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>316.1505655932366</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.1543111380362</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>76.94521197376109</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>59.66271693865821</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>310.5214377502261</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.536664108324487</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>122.4992781335012</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.2770323843601</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>6.53666410832443</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>163.5655470000178</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>53.328125375718</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>59.64236734312237</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.4649003340602</v>
       </c>
     </row>
     <row r="41">
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25846,7 +25848,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660205</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>325.2164753450601</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827573</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827573</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827573</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474506.1898827575</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787107.9177119741</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787107.917711974</v>
+        <v>787107.9177119739</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787107.9177119741</v>
+        <v>787107.917711974</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787107.9177119741</v>
+        <v>787107.917711974</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787107.917711974</v>
+        <v>787107.9177119741</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787107.917711974</v>
+        <v>787107.9177119741</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474506.1898827574</v>
+        <v>787107.917711974</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="H2" t="n">
-        <v>210761.4011765427</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="I2" t="n">
         <v>210761.4011765427</v>
@@ -26338,7 +26340,7 @@
         <v>210761.4011765427</v>
       </c>
       <c r="K2" t="n">
-        <v>210761.4011765427</v>
+        <v>210761.4011765428</v>
       </c>
       <c r="L2" t="n">
         <v>210761.4011765427</v>
@@ -26350,10 +26352,10 @@
         <v>210761.4011765427</v>
       </c>
       <c r="O2" t="n">
+        <v>210761.4011765426</v>
+      </c>
+      <c r="P2" t="n">
         <v>210761.4011765427</v>
-      </c>
-      <c r="P2" t="n">
-        <v>127059.143630737</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26418,10 +26420,10 @@
         <v>9081.116486988822</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988818</v>
       </c>
       <c r="D4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="E4" t="n">
         <v>9081.11648698882</v>
@@ -26430,19 +26432,19 @@
         <v>9081.11648698882</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="H4" t="n">
+        <v>9081.116486988822</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792743</v>
@@ -26454,10 +26456,10 @@
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>9081.116486988823</v>
+        <v>15116.17365792743</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
         <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135872.9573084171</v>
+        <v>-135872.957308417</v>
       </c>
       <c r="C6" t="n">
         <v>50531.7761063201</v>
@@ -26528,25 +26530,25 @@
         <v>50531.77610632009</v>
       </c>
       <c r="E6" t="n">
-        <v>84159.37610632009</v>
+        <v>84159.37610632011</v>
       </c>
       <c r="F6" t="n">
-        <v>84159.37610632009</v>
+        <v>84159.37610632011</v>
       </c>
       <c r="G6" t="n">
         <v>84159.37610632009</v>
       </c>
       <c r="H6" t="n">
-        <v>-77056.97465732407</v>
+        <v>84159.37610632014</v>
       </c>
       <c r="I6" t="n">
-        <v>117895.1653301855</v>
+        <v>-74247.67652319412</v>
       </c>
       <c r="J6" t="n">
-        <v>-27638.50460463089</v>
+        <v>-27638.50460463087</v>
       </c>
       <c r="K6" t="n">
-        <v>117895.1653301856</v>
+        <v>117895.1653301857</v>
       </c>
       <c r="L6" t="n">
         <v>117895.1653301856</v>
@@ -26558,10 +26560,10 @@
         <v>117895.1653301856</v>
       </c>
       <c r="O6" t="n">
+        <v>117895.1653301855</v>
+      </c>
+      <c r="P6" t="n">
         <v>117895.1653301856</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84159.37610632009</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>722.5561044572627</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>437.0840165728148</v>
       </c>
       <c r="M3" t="n">
-        <v>162.8199733981322</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>440.0596680121644</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O11" t="n">
-        <v>415.010189472638</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>556.2278131155941</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>245.6677613624789</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>556.2278131155941</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>257.8052598432934</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696739</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>533.7539620806207</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155941</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364775.9230194032</v>
+        <v>361295.9519273186</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901947</v>
+        <v>4671565.284901945</v>
       </c>
     </row>
     <row r="9">
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>34.35248743867763</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>92.38090300811051</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>108.5787138564738</v>
       </c>
       <c r="V4" t="n">
-        <v>276.3539409783856</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>90.64120017851245</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>133.68298982275</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>73.70641259348736</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>53.52449335348011</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>371.9180426215101</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>218.5560090896476</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>117.7395304238318</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>91.90090032357426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>104.7223743992572</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.5560090896476</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>84.7383931707359</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>377.14110196539</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>97.0813610937041</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.5800624936542</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.378995526348206</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>115.3288057180336</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>200.1143878900198</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.61444029309516</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028899</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>31.11661068715809</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4333,46 +4333,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>455.358312627159</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L2" t="n">
-        <v>455.358312627159</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596035</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2190.211770201085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>1969.286199245718</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="U2" t="n">
-        <v>1710.93128984213</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="V2" t="n">
-        <v>1710.93128984213</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="W2" t="n">
-        <v>1314.539940142477</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X2" t="n">
-        <v>1314.539940142477</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y2" t="n">
         <v>1314.539940142477</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437774</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233685</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233685</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>1128.080930530455</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M3" t="n">
-        <v>1678.746465514893</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N3" t="n">
-        <v>1678.746465514893</v>
+        <v>287.709308798102</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.746465514893</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514893</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.9957668907073</v>
+        <v>720.7977379486854</v>
       </c>
       <c r="C4" t="n">
-        <v>374.0232037696233</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="D4" t="n">
-        <v>210.706430896394</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924752</v>
@@ -4521,19 +4521,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="V4" t="n">
-        <v>1205.068400467226</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="W4" t="n">
-        <v>1205.068400467226</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X4" t="n">
-        <v>962.5045039130309</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.161735602773</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.3989550359474</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E5" t="n">
         <v>44.49822504924752</v>
@@ -4579,7 +4579,7 @@
         <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O5" t="n">
         <v>2224.911252462376</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2133.354484605292</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>1912.428913649926</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1654.074004246338</v>
+        <v>2089.877929409093</v>
       </c>
       <c r="V5" t="n">
-        <v>1296.584589372587</v>
+        <v>1732.388514535342</v>
       </c>
       <c r="W5" t="n">
-        <v>1296.584589372587</v>
+        <v>1732.388514535342</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.584589372587</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.2473193274775</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608814</v>
+        <v>287.709308798102</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379.7875610435608</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>207.8149979224768</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
         <v>44.49822504924752</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2118.947862113333</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1875.608514339233</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1595.424065839537</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1313.712598447566</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1038.860194620079</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>796.2962980658845</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>569.9535297556265</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1393.342889338593</v>
+        <v>1407.853983585013</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>1407.853983585013</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>984.5613627700136</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6224068598473</v>
+        <v>558.5844229178712</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>133.4602411072714</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924752</v>
@@ -4813,19 +4813,19 @@
         <v>957.767218850581</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462376</v>
@@ -4849,7 +4849,7 @@
         <v>1813.191253630123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1813.191253630123</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924752</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002561</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924752</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.486689458154</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="C11" t="n">
-        <v>927.8118989313758</v>
+        <v>1539.655613072088</v>
       </c>
       <c r="D11" t="n">
-        <v>504.5192781163761</v>
+        <v>1116.362992257088</v>
       </c>
       <c r="E11" t="n">
-        <v>504.5192781163761</v>
+        <v>690.3860524049459</v>
       </c>
       <c r="F11" t="n">
-        <v>79.39509630577631</v>
+        <v>265.2618705943461</v>
       </c>
       <c r="G11" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002561</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2120.543958335516</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V11" t="n">
-        <v>2120.543958335516</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.543958335516</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="X11" t="n">
-        <v>1708.823959503263</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="Y11" t="n">
-        <v>1303.486689458154</v>
+        <v>1966.556343058788</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924752</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O12" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924752</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>2007.737591668684</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>2007.737591668684</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>2007.737591668684</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.7056659857641</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C14" t="n">
-        <v>746.7056659857641</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D14" t="n">
-        <v>746.7056659857641</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E14" t="n">
-        <v>746.7056659857641</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F14" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G14" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I14" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336854</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002561</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q14" t="n">
         <v>2224.911252462376</v>
@@ -5311,19 +5311,19 @@
         <v>1899.618387380149</v>
       </c>
       <c r="U14" t="n">
-        <v>1641.263477976561</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="V14" t="n">
-        <v>1641.263477976561</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="W14" t="n">
-        <v>1244.872128276908</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="X14" t="n">
-        <v>1152.042936030874</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.7056659857641</v>
+        <v>1899.618387380149</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O15" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924752</v>
@@ -5460,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>887.3827134031587</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C17" t="n">
-        <v>887.3827134031587</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D17" t="n">
-        <v>887.3827134031587</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E17" t="n">
-        <v>887.3827134031587</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1899.61838738015</v>
+        <v>2004.147606917277</v>
       </c>
       <c r="U17" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="V17" t="n">
-        <v>1283.774063102812</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="W17" t="n">
-        <v>887.3827134031587</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X17" t="n">
-        <v>887.3827134031587</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y17" t="n">
-        <v>887.3827134031587</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M18" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O18" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P18" t="n">
         <v>1389.040378766978</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1049.956911236352</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>877.9843481152679</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.398243894584</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.686776502612</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1482.686776502612</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1240.122879948418</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1240.122879948418</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>746.7056659857641</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="C20" t="n">
-        <v>746.7056659857641</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="D20" t="n">
-        <v>746.7056659857641</v>
+        <v>460.3457043516248</v>
       </c>
       <c r="E20" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F20" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M20" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N20" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V20" t="n">
-        <v>1646.496266633258</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W20" t="n">
-        <v>1250.104916933605</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.042936030874</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y20" t="n">
-        <v>746.7056659857641</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L21" t="n">
-        <v>866.8612493132766</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132766</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N21" t="n">
-        <v>866.8612493132766</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O21" t="n">
-        <v>866.8612493132766</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P21" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q21" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1663.015336570709</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1663.015336570709</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1420.451440016514</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6235,43 +6235,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,31 +6463,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
         <v>5010.768376164567</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,16 +6648,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
         <v>1105.20968432887</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905341</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6946,22 +6946,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7022,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7262,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1445.967421099803</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,28 +7487,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
         <v>1828.971033901635</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517326</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4871.796322517326</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4871.796322517326</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.8188681099</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>201.4478291472353</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D46" t="n">
-        <v>201.4478291472353</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E46" t="n">
-        <v>201.4478291472353</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>84.50867025038097</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150257</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8002,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>459.5991032870443</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>204.9191049629861</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8294,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,7 +8303,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>463.1564485244924</v>
+        <v>268.7645418748073</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291355</v>
@@ -8315,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8461,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498007</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487053</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>180.0446044646224</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>87.05611188819455</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487053</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,7 +8789,7 @@
         <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P14" t="n">
-        <v>571.3293238908516</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>180.0446044646224</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366446</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>268.8396510847011</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419898</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>571.1852249800522</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>466.3767193553318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,25 +9716,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>278.8849582314198</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>530.2476341400729</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036184</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
-        <v>859.1289664256981</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10433,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11153,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>447.3998461757263</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>304.4845953330639</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.97113374691335</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>126.3354122377027</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22761,13 +22761,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.8038901582249</v>
       </c>
       <c r="V4" t="n">
-        <v>2.540411739665785</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>12.68242100707855</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>122.0883704868018</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,13 +22947,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>63.52994056050434</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>348.9253100933455</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>346.7711784329657</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23190,16 +23190,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>19.29091348988686</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>50.71368006532276</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>181.7396626967983</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>297.9103502247829</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>315.7018985203559</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>316.1505655932366</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.160306156165575</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>76.94521197376109</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>44.57606848823099</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>310.5214377502261</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>165.764160956837</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>163.5655470000178</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>71.9894918991923</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4649003340602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.136226802715</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474506.1898827573</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474506.1898827574</v>
+        <v>474506.1898827572</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474506.1898827573</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474506.1898827573</v>
+        <v>474506.1898827574</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474506.1898827574</v>
+        <v>474506.1898827575</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787107.9177119739</v>
+        <v>787107.917711974</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787107.9177119741</v>
+        <v>787107.917711974</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787107.9177119741</v>
+        <v>787107.917711974</v>
       </c>
     </row>
     <row r="16">
@@ -26319,13 +26319,13 @@
         <v>127059.143630737</v>
       </c>
       <c r="D2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="E2" t="n">
         <v>127059.143630737</v>
       </c>
       <c r="F2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="G2" t="n">
         <v>127059.143630737</v>
@@ -26337,10 +26337,10 @@
         <v>210761.4011765427</v>
       </c>
       <c r="J2" t="n">
+        <v>210761.4011765426</v>
+      </c>
+      <c r="K2" t="n">
         <v>210761.4011765427</v>
-      </c>
-      <c r="K2" t="n">
-        <v>210761.4011765428</v>
       </c>
       <c r="L2" t="n">
         <v>210761.4011765427</v>
@@ -26349,13 +26349,13 @@
         <v>210761.4011765427</v>
       </c>
       <c r="N2" t="n">
+        <v>210761.4011765426</v>
+      </c>
+      <c r="O2" t="n">
         <v>210761.4011765427</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>210761.4011765426</v>
-      </c>
-      <c r="P2" t="n">
-        <v>210761.4011765427</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988818</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="D4" t="n">
         <v>9081.11648698882</v>
@@ -26432,31 +26432,31 @@
         <v>9081.11648698882</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="H4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="P4" t="n">
         <v>15116.17365792743</v>
@@ -26484,34 +26484,34 @@
         <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
+        <v>33818.65103742811</v>
+      </c>
+      <c r="H5" t="n">
         <v>33818.65103742812</v>
       </c>
-      <c r="H5" t="n">
-        <v>33818.65103742811</v>
-      </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135872.957308417</v>
+        <v>-136482.0030209067</v>
       </c>
       <c r="C6" t="n">
-        <v>50531.7761063201</v>
+        <v>49922.73039383044</v>
       </c>
       <c r="D6" t="n">
-        <v>50531.77610632009</v>
+        <v>49922.73039383048</v>
       </c>
       <c r="E6" t="n">
-        <v>84159.37610632011</v>
+        <v>83550.33039383046</v>
       </c>
       <c r="F6" t="n">
-        <v>84159.37610632011</v>
+        <v>83550.33039383047</v>
       </c>
       <c r="G6" t="n">
-        <v>84159.37610632009</v>
+        <v>83550.33039383043</v>
       </c>
       <c r="H6" t="n">
-        <v>84159.37610632014</v>
+        <v>83550.33039383047</v>
       </c>
       <c r="I6" t="n">
-        <v>-74247.67652319412</v>
+        <v>-74298.70718537847</v>
       </c>
       <c r="J6" t="n">
-        <v>-27638.50460463087</v>
+        <v>-27689.53526681524</v>
       </c>
       <c r="K6" t="n">
-        <v>117895.1653301857</v>
+        <v>117844.1346680013</v>
       </c>
       <c r="L6" t="n">
-        <v>117895.1653301856</v>
+        <v>117844.1346680013</v>
       </c>
       <c r="M6" t="n">
-        <v>117895.1653301856</v>
+        <v>117844.1346680013</v>
       </c>
       <c r="N6" t="n">
-        <v>117895.1653301856</v>
+        <v>117844.1346680012</v>
       </c>
       <c r="O6" t="n">
-        <v>117895.1653301855</v>
+        <v>117844.1346680013</v>
       </c>
       <c r="P6" t="n">
-        <v>117895.1653301856</v>
+        <v>117844.1346680012</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
+        <v>556.2278131155939</v>
+      </c>
+      <c r="H4" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="H4" t="n">
-        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -34701,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>437.0840165728148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>245.6677613624793</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>167.4878420635542</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>440.0596680121644</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155939</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>263.0232516395694</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>432.5378064344757</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O9" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="P9" t="n">
-        <v>158.2737632597938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
+        <v>48.74406945557163</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N11" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O11" t="n">
-        <v>533.7539620806203</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>432.5378064344757</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P14" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806206</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>444.6058781505031</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>507.0757444178507</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338712</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
-        <v>821.7380070696739</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2279564535041</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>267.0533324336321</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
